--- a/output/part1/grs_size_op_inv2.xlsx
+++ b/output/part1/grs_size_op_inv2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.18816879946291</v>
+        <v>16.46425193330187</v>
       </c>
       <c r="C2" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121162374480705</v>
+        <v>0.01533359077428826</v>
       </c>
       <c r="E2" t="n">
-        <v>51.80312797240274</v>
+        <v>0.9291784833936778</v>
       </c>
       <c r="F2" t="n">
-        <v>2683.564067725136</v>
+        <v>0.8633726540017753</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.42153529887559</v>
+        <v>16.4839847028106</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1223112479603146</v>
+        <v>0.01530496395580449</v>
       </c>
       <c r="E3" t="n">
-        <v>52.2943302960894</v>
+        <v>0.9274437674895769</v>
       </c>
       <c r="F3" t="n">
-        <v>2734.696981116494</v>
+        <v>0.8601519418552606</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.8954319503652</v>
+        <v>17.34811180985909</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1180662376422488</v>
+        <v>0.01299929766748106</v>
       </c>
       <c r="E4" t="n">
-        <v>50.47937071236196</v>
+        <v>0.7877259716691299</v>
       </c>
       <c r="F4" t="n">
-        <v>2548.166867516066</v>
+        <v>0.6205122064420749</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.26226053210023</v>
+        <v>17.68010677920795</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1218525501292623</v>
+        <v>0.01347432114524307</v>
       </c>
       <c r="E5" t="n">
-        <v>52.09821345251889</v>
+        <v>0.8165112445475096</v>
       </c>
       <c r="F5" t="n">
-        <v>2714.223844944221</v>
+        <v>0.6666906124725229</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.90762343009844</v>
+        <v>17.34630636150452</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1190937423344892</v>
+        <v>0.01298025924589215</v>
       </c>
       <c r="E6" t="n">
-        <v>50.91868165598205</v>
+        <v>0.7865722894065345</v>
       </c>
       <c r="F6" t="n">
-        <v>2592.712141583243</v>
+        <v>0.6186959664622371</v>
       </c>
     </row>
   </sheetData>
